--- a/biology/Zoologie/Hamadryas_iphthime/Hamadryas_iphthime.xlsx
+++ b/biology/Zoologie/Hamadryas_iphthime/Hamadryas_iphthime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas iphthime est une  espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Hamadryas.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas iphthime a été décrit par Henry Walter Bates en 1864 sous le nom initial d' Ageronia iphthime.
-Synonyme : Peridroma iphthime ; Godman &amp; Salvin, [1883][1].
-Sous-espèces
-Hamadryas iphthime iphthime présent  au Costa Rica, en Colombie, en Bolivie et au Brésil.
-Hamadryas iphthime joannae Jenkins, 1983; présent au Mexique[1].
-Nom vernaculaire
-Hamadryas  iphthime se nomme Brownish Cracker en anglais[2],[3].
+Synonyme : Peridroma iphthime ; Godman &amp; Salvin, .
 </t>
         </is>
       </c>
@@ -545,14 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamadryas iphthime est un papillon d'une envergure de 70 mm à 80 mm, à ailes antérieures à bord costal bossu et bord externe concave, au dessus marbré de marron, de bleu-gris et de blanc[2]. Il présente une ligne submarginale d'ocelles, uniquement trois discrets à l'apex des ailes antérieures, mais bien visibles aux ailes postérieures car marron doublement cernés de bleu et de marron et centrés d'un point blanc.
-Le revers est crème avec aux ailes antérieures une partie basale crème et le reste de couleur marron largement taché de crème. Les ailes postérieures sont crème avec une ligne submarginale de taches rondes blanches cernées de marron et une marge marron tachée de blanc.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hamadryas iphthime iphthime présent  au Costa Rica, en Colombie, en Bolivie et au Brésil.
+Hamadryas iphthime joannae Jenkins, 1983; présent au Mexique.</t>
         </is>
       </c>
     </row>
@@ -577,14 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamadryas iphthime vole toute l'année en zone tropicale en plusieurs générations, mais uniquement en août au Texas[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des (Euphorbiaceae)[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas  iphthime se nomme Brownish Cracker en anglais,.
 </t>
         </is>
       </c>
@@ -610,18 +628,194 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas iphthime est un papillon d'une envergure de 70 mm à 80 mm, à ailes antérieures à bord costal bossu et bord externe concave, au dessus marbré de marron, de bleu-gris et de blanc. Il présente une ligne submarginale d'ocelles, uniquement trois discrets à l'apex des ailes antérieures, mais bien visibles aux ailes postérieures car marron doublement cernés de bleu et de marron et centrés d'un point blanc.
+Le revers est crème avec aux ailes antérieures une partie basale crème et le reste de couleur marron largement taché de crème. Les ailes postérieures sont crème avec une ligne submarginale de taches rondes blanches cernées de marron et une marge marron tachée de blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas iphthime vole toute l'année en zone tropicale en plusieurs générations, mais uniquement en août au Texas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des (Euphorbiaceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas iphthime est présent au Costa Rica, en Colombie, en Bolivie, au Brésil. au Mexique et au Texas[1],[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas iphthime est présent au Costa Rica, en Colombie, en Bolivie, au Brésil. au Mexique et au Texas,.
 Sur les autres projets Wikimedia :
 Hamadryas iphthime, sur Wikimedia CommonsHamadryas iphthime, sur Wikispecies
-Biotope
-Hamadryas iphthime réside dans les zones ouvertes de la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas iphthime réside dans les zones ouvertes de la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_iphthime</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
